--- a/artifact/data/rdbms-08.data.xlsx
+++ b/artifact/data/rdbms-08.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9B56D2-8F07-5E40-9E81-37C160F5377E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A9C42A-8397-D646-A177-C7FB76BE3965}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12980" windowWidth="20480" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20480" yWindow="440" windowWidth="20480" windowHeight="12580" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -45,6 +45,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>true</t>
   </si>
@@ -218,6 +223,28 @@
 ORDER BY 1, 2
 ;</t>
   </si>
+  <si>
+    <t>songs SQL</t>
+  </si>
+  <si>
+    <t>songs template</t>
+  </si>
+  <si>
+    <t>$(syspath|data|fullpath)/rdbms-08.template2.sql</t>
+  </si>
+  <si>
+    <t>SELECT 
+	AR.NAME AS "artist name", 
+	AL.TITLE AS "album", 
+	TR.NAME AS "song title", 
+	TR.UNITPRICE AS "unit price"
+FROM ARTISTS AR, ALBUMS AL, TRACKS TR
+WHERE
+	AR.ARTISTID = AL.ARTISTID AND
+	AL.ALBUMID = TR.ALBUMID AND
+		AL.TITLE LIKE 'Alcohol%'
+ORDER BY 1, 2</t>
+  </si>
 </sst>
 </file>
 
@@ -349,7 +376,7 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="25">
     <dxf>
       <font>
         <b val="0"/>
@@ -675,526 +702,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1486,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -10730,21 +10237,21 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="61" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="24" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="23" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="64" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="63" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="62" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12193,21 +11700,21 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="51" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="19" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="50" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="18" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="54" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="52" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14361,21 +13868,21 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="29" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="27" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="26" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="25" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15119,21 +14626,21 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="19" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="17" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="15" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15144,9 +14651,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C932B33D-8942-1B4A-9491-5321CD6551F4}">
-  <dimension ref="A1:AAA8"/>
+  <dimension ref="A1:AAA10"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -20824,24 +20333,40 @@
       <c r="ZY8"/>
       <c r="ZZ8"/>
     </row>
+    <row r="9" spans="1:703" ht="187">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/artifact/data/rdbms-08.data.xlsx
+++ b/artifact/data/rdbms-08.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A9C42A-8397-D646-A177-C7FB76BE3965}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A211CD-FF40-2642-AA74-AF46ABCE2060}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20480" yWindow="440" windowWidth="20480" windowHeight="12580" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="2740" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -10264,7 +10264,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEF3C7D-EA99-0842-A743-37C87A57C31D}">
   <dimension ref="A1:AAA3"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -11727,7 +11729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A68597-CFC4-1F49-98E4-4524E9CEE0B7}">
   <dimension ref="A1:AAA3"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -14653,7 +14657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C932B33D-8942-1B4A-9491-5321CD6551F4}">
   <dimension ref="A1:AAA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
